--- a/week-02/output1.xlsx
+++ b/week-02/output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>temperature_left</t>
+          <t>temperature</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>humidity_left</t>
+          <t>humidity_x</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>temperature_right</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>humidity_right</t>
+          <t>humidity_y</t>
         </is>
       </c>
     </row>
@@ -476,9 +471,6 @@
         <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
-      </c>
-      <c r="F2" t="n">
         <v>65</v>
       </c>
     </row>
@@ -498,9 +490,6 @@
         <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
-      </c>
-      <c r="F3" t="n">
         <v>68</v>
       </c>
     </row>
